--- a/T-Test_Results.xlsx
+++ b/T-Test_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University Studies\Spring 2023\Independent Study Revival\Github\Agriculture-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CE744-DE25-46FD-AB39-D31828BE00E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58FA791-6E91-48FD-9FD1-9549F57F9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/T-Test_Results.xlsx
+++ b/T-Test_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University Studies\Spring 2023\Independent Study Revival\Github\Agriculture-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58FA791-6E91-48FD-9FD1-9549F57F9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BDB782-EB87-4121-9FD1-65DC2EFE9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Factors</t>
   </si>
@@ -92,9 +92,6 @@
     <t>High and low producing nations have same water use efficiency. How are they producing more?</t>
   </si>
   <si>
-    <t>Even with lower agriculture share of government expenditure, high-producing nations have more production per capita.</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -108,6 +105,18 @@
   </si>
   <si>
     <t>Mean Correlation</t>
+  </si>
+  <si>
+    <t>Even with lower agriculture share of government expenditure, high-producing nations have more production per capita. This does not imply government should spend less on their agriculture sector.</t>
+  </si>
+  <si>
+    <t>Even with lower gini coefficient, high-producing nations have more production per capita. This does not imply gini should spend less on their gini sector.</t>
+  </si>
+  <si>
+    <t>Even with lower fdi inflows to agriculture, high-producing nations have more production per capita. This does not imply to should spend less on their fdi sector.</t>
+  </si>
+  <si>
+    <t>High and low producing nations have same water use efficiency. Need to further analyze which crops are the most water-efficient.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -495,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -509,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -523,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -565,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">

--- a/T-Test_Results.xlsx
+++ b/T-Test_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University Studies\Spring 2023\Independent Study Revival\Github\Agriculture-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BDB782-EB87-4121-9FD1-65DC2EFE9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F97B3-CE98-4127-8566-8931CCB8DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Factors</t>
   </si>
   <si>
-    <t>Significance</t>
-  </si>
-  <si>
     <t>GDP per capita</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>FDI inflows to Agriculture</t>
   </si>
   <si>
-    <t>Not Significant</t>
-  </si>
-  <si>
-    <t>Significant</t>
-  </si>
-  <si>
     <t>Rejecting population as a factor as it cannot be easily tunable.</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>High-producing nations use high amounts of fertilizer per capita. Hence, the governments of low-producing nations can find ways of utilizing more  fertilizer in their agricultural land.</t>
   </si>
   <si>
-    <t>High and low producing nations have same water use efficiency. How are they producing more?</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -104,19 +92,31 @@
     <t xml:space="preserve">High-producing nations have high education enrolment ratio. </t>
   </si>
   <si>
-    <t>Mean Correlation</t>
-  </si>
-  <si>
     <t>Even with lower agriculture share of government expenditure, high-producing nations have more production per capita. This does not imply government should spend less on their agriculture sector.</t>
   </si>
   <si>
-    <t>Even with lower gini coefficient, high-producing nations have more production per capita. This does not imply gini should spend less on their gini sector.</t>
-  </si>
-  <si>
-    <t>Even with lower fdi inflows to agriculture, high-producing nations have more production per capita. This does not imply to should spend less on their fdi sector.</t>
-  </si>
-  <si>
     <t>High and low producing nations have same water use efficiency. Need to further analyze which crops are the most water-efficient.</t>
+  </si>
+  <si>
+    <t>Credit to Agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correlation Count</t>
+  </si>
+  <si>
+    <t>High Correlation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Credit to Agriculture may not be a dominant factor for well-producing developed countries but it needs to be further explored as Total agricultural production is  highly correlated with 'Credit to Agriculture' for the entire dataset.</t>
+  </si>
+  <si>
+    <t>Need to be explored further as there is high correlation.</t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
     <col min="1" max="1" width="28.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="67.81640625" customWidth="1"/>
+    <col min="4" max="4" width="83.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -484,150 +484,168 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>0.78181818181818175</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>0.35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>0.58454545454545448</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>-0.55272727272727284</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>-1.7272727272727259E-2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>-7.8181818181818144E-2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>-0.10818181818181817</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.10399999999999998</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>0.46272727272727282</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.15777777777777777</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
